--- a/gene_names_CpG_based.xlsx
+++ b/gene_names_CpG_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,367 +434,259 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UCSC_REFGENE_NAME</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>{'HSF5'}</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>{'CTDP1'}</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>{'CEP164'}</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>{'FST'}</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>{'TMUB1'}</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>{'FAM49B'}</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>{'FN3KRP'}</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>{'ZNF793'}</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>{'MT1DP'}</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>{'ERN2'}</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>{'CLEC2L'}</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>{'SELS'}</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>{'TCF7'}</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>{'MIR431', 'RTL1', 'MIR433'}</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>{'GPR85'}</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>{'TLR5'}</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>{'HOXA4'}</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>{'SYT8'}</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>{'UCHL1'}</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>{'HRH2'}</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>{'TMEM132B'}</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>{'ZNF799'}</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>{'INF2'}</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>{'SNORD48', 'C6orf48'}</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>{'SH3D19'}</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>{'PTPRN2'}</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>{'FKBP8'}</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>{'EFCAB4A'}</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>{'UBE2QP1'}</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>{'ZWINT'}</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>{'WIZ'}</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>{'HELZ'}</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>{'ATP6V1C2'}</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>{'LYPD1'}</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>{'IGFBP6'}</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>{'CHMP4C'}</t>
         </is>
